--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.4131345792485</v>
+        <v>645.6615611880629</v>
       </c>
       <c r="AB2" t="n">
-        <v>765.4137302970297</v>
+        <v>883.4226325952473</v>
       </c>
       <c r="AC2" t="n">
-        <v>692.3637181423981</v>
+        <v>799.1100164318083</v>
       </c>
       <c r="AD2" t="n">
-        <v>559413.1345792485</v>
+        <v>645661.5611880629</v>
       </c>
       <c r="AE2" t="n">
-        <v>765413.7302970297</v>
+        <v>883422.6325952472</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.506647684258905e-06</v>
+        <v>2.172080351161091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.17361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>692363.7181423981</v>
+        <v>799110.0164318082</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.1022949072516</v>
+        <v>396.4506181296155</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.8699876788613</v>
+        <v>542.4412258918186</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.9806414863713</v>
+        <v>490.6713966137448</v>
       </c>
       <c r="AD3" t="n">
-        <v>336102.2949072515</v>
+        <v>396450.6181296154</v>
       </c>
       <c r="AE3" t="n">
-        <v>459869.9876788612</v>
+        <v>542441.2258918186</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.109506327859294e-06</v>
+        <v>3.041200204443933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>415980.6414863713</v>
+        <v>490671.3966137448</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.7392432892297</v>
+        <v>337.5395395706818</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.9610385940575</v>
+        <v>461.836489234126</v>
       </c>
       <c r="AC4" t="n">
-        <v>353.6482657879038</v>
+        <v>417.7594628932038</v>
       </c>
       <c r="AD4" t="n">
-        <v>285739.2432892297</v>
+        <v>337539.5395706818</v>
       </c>
       <c r="AE4" t="n">
-        <v>390961.0385940575</v>
+        <v>461836.4892341259</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324831742857255e-06</v>
+        <v>3.351627192723369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>353648.2657879038</v>
+        <v>417759.4628932038</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>284.2523319198172</v>
+        <v>336.0526282012692</v>
       </c>
       <c r="AB5" t="n">
-        <v>388.9265808605273</v>
+        <v>459.8020315005957</v>
       </c>
       <c r="AC5" t="n">
-        <v>351.8079738450825</v>
+        <v>415.9191709503824</v>
       </c>
       <c r="AD5" t="n">
-        <v>284252.3319198172</v>
+        <v>336052.6282012692</v>
       </c>
       <c r="AE5" t="n">
-        <v>388926.5808605273</v>
+        <v>459802.0315005957</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.337016010242506e-06</v>
+        <v>3.369192817426011e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.00347222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>351807.9738450825</v>
+        <v>415919.1709503824</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.9905754903825</v>
+        <v>497.7473874854098</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.3861222962173</v>
+        <v>681.0399346224815</v>
       </c>
       <c r="AC2" t="n">
-        <v>522.2812011507779</v>
+        <v>616.0424391076625</v>
       </c>
       <c r="AD2" t="n">
-        <v>421990.5754903825</v>
+        <v>497747.3874854099</v>
       </c>
       <c r="AE2" t="n">
-        <v>577386.1222962174</v>
+        <v>681039.9346224815</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.792766283536718e-06</v>
+        <v>2.624542397107438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.54050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>522281.2011507779</v>
+        <v>616042.4391076625</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.206249855011</v>
+        <v>331.9576225394399</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.8128440607121</v>
+        <v>454.1990640951815</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.1366708731786</v>
+        <v>410.8509428903267</v>
       </c>
       <c r="AD3" t="n">
-        <v>273206.249855011</v>
+        <v>331957.6225394399</v>
       </c>
       <c r="AE3" t="n">
-        <v>373812.844060712</v>
+        <v>454199.0640951815</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.360455685823983e-06</v>
+        <v>3.455618326175128e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.32175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>338136.6708731786</v>
+        <v>410850.9428903267</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.5550776598251</v>
+        <v>319.0597084983943</v>
       </c>
       <c r="AB4" t="n">
-        <v>367.4489050680235</v>
+        <v>436.5515690884146</v>
       </c>
       <c r="AC4" t="n">
-        <v>332.3800972861079</v>
+        <v>394.8877000385908</v>
       </c>
       <c r="AD4" t="n">
-        <v>268555.0776598251</v>
+        <v>319059.7084983943</v>
       </c>
       <c r="AE4" t="n">
-        <v>367448.9050680235</v>
+        <v>436551.5690884145</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.394737627908705e-06</v>
+        <v>3.505805799736399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.13078703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>332380.0972861078</v>
+        <v>394887.7000385908</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.8016828736916</v>
+        <v>299.0874526673531</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.9484623956586</v>
+        <v>409.2246475466424</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.9814512478361</v>
+        <v>370.1688215351902</v>
       </c>
       <c r="AD2" t="n">
-        <v>244801.6828736916</v>
+        <v>299087.4526673531</v>
       </c>
       <c r="AE2" t="n">
-        <v>334948.4623956586</v>
+        <v>409224.6475466423</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425984853013089e-06</v>
+        <v>3.753298013993587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.46180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>302981.4512478361</v>
+        <v>370168.8215351902</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.1466799951139</v>
+        <v>323.2116872313055</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.5218732490458</v>
+        <v>442.2324895631575</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.6369786793272</v>
+        <v>400.0264414364462</v>
       </c>
       <c r="AD2" t="n">
-        <v>267146.6799951139</v>
+        <v>323211.6872313055</v>
       </c>
       <c r="AE2" t="n">
-        <v>365521.8732490458</v>
+        <v>442232.4895631574</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.354442942979746e-06</v>
+        <v>3.558255418760069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>330636.9786793272</v>
+        <v>400026.4414364463</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.0839026614635</v>
+        <v>303.2341612436787</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.0710961937176</v>
+        <v>414.8983571606422</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.8060652588534</v>
+        <v>375.3010402667313</v>
       </c>
       <c r="AD3" t="n">
-        <v>247083.9026614635</v>
+        <v>303234.1612436787</v>
       </c>
       <c r="AE3" t="n">
-        <v>338071.0961937176</v>
+        <v>414898.3571606422</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.447643992574988e-06</v>
+        <v>3.699109602865582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.70949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>305806.0652588534</v>
+        <v>375301.0402667313</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.7670006353113</v>
+        <v>308.2374937324436</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.0057409776915</v>
+        <v>421.7441374032214</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.6515088564273</v>
+        <v>381.4934688510717</v>
       </c>
       <c r="AD2" t="n">
-        <v>247767.0006353113</v>
+        <v>308237.4937324436</v>
       </c>
       <c r="AE2" t="n">
-        <v>339005.7409776915</v>
+        <v>421744.1374032215</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.349589363861244e-06</v>
+        <v>3.713497771819244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.50925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>306651.5088564273</v>
+        <v>381493.4688510717</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.1746175222805</v>
+        <v>533.3570100482229</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.5264808146453</v>
+        <v>729.7625911985953</v>
       </c>
       <c r="AC2" t="n">
-        <v>565.8271114176246</v>
+        <v>660.1150737228302</v>
       </c>
       <c r="AD2" t="n">
-        <v>457174.6175222805</v>
+        <v>533357.010048223</v>
       </c>
       <c r="AE2" t="n">
-        <v>625526.4808146453</v>
+        <v>729762.5911985952</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.711944503243923e-06</v>
+        <v>2.495820418651557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.20023148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>565827.1114176245</v>
+        <v>660115.0737228302</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.667928337287</v>
+        <v>344.9872069043694</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.863462330616</v>
+        <v>472.0267162479709</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.5600020660959</v>
+        <v>426.9771489429209</v>
       </c>
       <c r="AD3" t="n">
-        <v>285667.928337287</v>
+        <v>344987.2069043693</v>
       </c>
       <c r="AE3" t="n">
-        <v>390863.462330616</v>
+        <v>472026.7162479709</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.298224654703952e-06</v>
+        <v>3.350550212924322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.55902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>353560.0020660959</v>
+        <v>426977.1489429209</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.7373952473963</v>
+        <v>323.5825806705893</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.1713365021682</v>
+        <v>442.7399623294494</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.5563878956607</v>
+        <v>400.4854817141658</v>
       </c>
       <c r="AD4" t="n">
-        <v>272737.3952473963</v>
+        <v>323582.5806705893</v>
       </c>
       <c r="AE4" t="n">
-        <v>373171.3365021682</v>
+        <v>442739.9623294494</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.37667172795928e-06</v>
+        <v>3.464917125428263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.10763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>337556.3878956607</v>
+        <v>400485.4817141658</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.1290282406167</v>
+        <v>314.5266727429498</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.0787919370007</v>
+        <v>430.3492695843917</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.7632019697991</v>
+        <v>389.27733929425</v>
       </c>
       <c r="AD2" t="n">
-        <v>255129.0282406168</v>
+        <v>314526.6727429497</v>
       </c>
       <c r="AE2" t="n">
-        <v>349078.7919370007</v>
+        <v>430349.2695843917</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.262318603108738e-06</v>
+        <v>3.624765815566901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.48148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>315763.2019697991</v>
+        <v>389277.33929425</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.9484442175523</v>
+        <v>401.8141467933356</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.6594823778014</v>
+        <v>549.7798424317052</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.7902265157986</v>
+        <v>497.3096258908776</v>
       </c>
       <c r="AD2" t="n">
-        <v>335948.4442175523</v>
+        <v>401814.1467933356</v>
       </c>
       <c r="AE2" t="n">
-        <v>459659.4823778014</v>
+        <v>549779.8424317052</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.049738880766404e-06</v>
+        <v>3.043540832997773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.80439814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>415790.2265157986</v>
+        <v>497309.6258908776</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.5871677246946</v>
+        <v>315.0490652779158</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.4421268245745</v>
+        <v>431.0640300970646</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.8055448961742</v>
+        <v>389.9238840667659</v>
       </c>
       <c r="AD3" t="n">
-        <v>257587.1677246945</v>
+        <v>315049.0652779158</v>
       </c>
       <c r="AE3" t="n">
-        <v>352442.1268245745</v>
+        <v>431064.0300970646</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426571098400339e-06</v>
+        <v>3.603077587810735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.35069444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>318805.5448961742</v>
+        <v>389923.8840667659</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.6593696726475</v>
+        <v>465.8005839128962</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.5173842611449</v>
+        <v>637.3289085810646</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.5037953071209</v>
+        <v>576.5031320428283</v>
       </c>
       <c r="AD2" t="n">
-        <v>390659.3696726475</v>
+        <v>465800.5839128962</v>
       </c>
       <c r="AE2" t="n">
-        <v>534517.3842611449</v>
+        <v>637328.9085810647</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.867985875899406e-06</v>
+        <v>2.746765782359863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.99074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>483503.7953071209</v>
+        <v>576503.1320428282</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.8656574201494</v>
+        <v>323.204608071084</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.4008775303655</v>
+        <v>442.222803543832</v>
       </c>
       <c r="AC3" t="n">
-        <v>327.8138464116928</v>
+        <v>400.0176798372108</v>
       </c>
       <c r="AD3" t="n">
-        <v>264865.6574201494</v>
+        <v>323204.608071084</v>
       </c>
       <c r="AE3" t="n">
-        <v>362400.8775303655</v>
+        <v>442222.803543832</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.403443349882961e-06</v>
+        <v>3.534125197879383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.20601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>327813.8464116928</v>
+        <v>400017.6798372108</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.8716503825533</v>
+        <v>315.0227766209845</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.4090773659174</v>
+        <v>431.0280607968775</v>
       </c>
       <c r="AC4" t="n">
-        <v>327.8212636664482</v>
+        <v>389.8913476261054</v>
       </c>
       <c r="AD4" t="n">
-        <v>264871.6503825533</v>
+        <v>315022.7766209845</v>
       </c>
       <c r="AE4" t="n">
-        <v>362409.0773659174</v>
+        <v>431028.0607968775</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.407556768970205e-06</v>
+        <v>3.540173744039781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.18287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>327821.2636664482</v>
+        <v>389891.3476261054</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.1820316169853</v>
+        <v>606.831391499685</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.1042485868358</v>
+        <v>830.2934813614243</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.0465799498062</v>
+        <v>751.0514368245092</v>
       </c>
       <c r="AD2" t="n">
-        <v>521182.0316169853</v>
+        <v>606831.391499685</v>
       </c>
       <c r="AE2" t="n">
-        <v>713104.2485868358</v>
+        <v>830293.4813614242</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.571259540123415e-06</v>
+        <v>2.273255103486344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.49652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>645046.5799498062</v>
+        <v>751051.4368245092</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.2388163997736</v>
+        <v>381.2275315120573</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.5331206545373</v>
+        <v>521.6123271864928</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.5846965078767</v>
+        <v>471.8303787673124</v>
       </c>
       <c r="AD3" t="n">
-        <v>321238.8163997736</v>
+        <v>381227.5315120573</v>
       </c>
       <c r="AE3" t="n">
-        <v>439533.1206545373</v>
+        <v>521612.3271864928</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172743684690049e-06</v>
+        <v>3.143465827040532e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.09722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>397584.6965078767</v>
+        <v>471830.3787673124</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.9934021792054</v>
+        <v>331.4854629377315</v>
       </c>
       <c r="AB4" t="n">
-        <v>383.0993252987027</v>
+        <v>453.5530344979124</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.5368633754738</v>
+        <v>410.2665694511128</v>
       </c>
       <c r="AD4" t="n">
-        <v>279993.4021792054</v>
+        <v>331485.4629377315</v>
       </c>
       <c r="AE4" t="n">
-        <v>383099.3252987027</v>
+        <v>453553.0344979124</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.349451489175476e-06</v>
+        <v>3.399121820283261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.03819444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>346536.8633754738</v>
+        <v>410266.5694511128</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.4953302472707</v>
+        <v>331.9873910057968</v>
       </c>
       <c r="AB5" t="n">
-        <v>383.7860854249332</v>
+        <v>454.2397946241429</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.1580800791309</v>
+        <v>410.8877861547698</v>
       </c>
       <c r="AD5" t="n">
-        <v>280495.3302472707</v>
+        <v>331987.3910057968</v>
       </c>
       <c r="AE5" t="n">
-        <v>383786.0854249332</v>
+        <v>454239.7946241429</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.349980871453742e-06</v>
+        <v>3.399887716008972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.03819444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>347158.0800791308</v>
+        <v>410887.7861547698</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.9408200843134</v>
+        <v>350.6219530953333</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.2368448580316</v>
+        <v>479.7364245739053</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.8977494891408</v>
+        <v>433.9510535268717</v>
       </c>
       <c r="AD2" t="n">
-        <v>285940.8200843135</v>
+        <v>350621.9530953333</v>
       </c>
       <c r="AE2" t="n">
-        <v>391236.8448580316</v>
+        <v>479736.4245739053</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.250237403187873e-06</v>
+        <v>3.379146886292878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.72800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>353897.7494891408</v>
+        <v>433951.0535268717</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.2112961625338</v>
+        <v>306.8819607949295</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.3501339527436</v>
+        <v>419.889437436222</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.6767176598266</v>
+        <v>379.8157788458349</v>
       </c>
       <c r="AD3" t="n">
-        <v>250211.2961625338</v>
+        <v>306881.9607949295</v>
       </c>
       <c r="AE3" t="n">
-        <v>342350.1339527437</v>
+        <v>419889.437436222</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.447364407890544e-06</v>
+        <v>3.675169476265647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>309676.7176598266</v>
+        <v>379815.7788458349</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.7318897309077</v>
+        <v>302.6539823294532</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.9577006893027</v>
+        <v>414.1045307745118</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.6080534657374</v>
+        <v>374.5829755567509</v>
       </c>
       <c r="AD2" t="n">
-        <v>247731.8897309077</v>
+        <v>302653.9823294532</v>
       </c>
       <c r="AE2" t="n">
-        <v>338957.7006893026</v>
+        <v>414104.5307745117</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.441064144203862e-06</v>
+        <v>3.743974194984428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.14351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>306608.0534657374</v>
+        <v>374582.9755567509</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.7919255827699</v>
+        <v>303.7140181813155</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.408088507301</v>
+        <v>415.5549185925109</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.9200183060186</v>
+        <v>375.8949403970323</v>
       </c>
       <c r="AD3" t="n">
-        <v>248791.9255827699</v>
+        <v>303714.0181813155</v>
       </c>
       <c r="AE3" t="n">
-        <v>340408.088507301</v>
+        <v>415554.9185925109</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.439990309837674e-06</v>
+        <v>3.74232720501645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.14930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>307920.0183060186</v>
+        <v>375894.9403970322</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.1230484063556</v>
+        <v>303.3837882725182</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.2834365444388</v>
+        <v>415.1030834625791</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.6662103199595</v>
+        <v>375.4862277777466</v>
       </c>
       <c r="AD2" t="n">
-        <v>242123.0484063556</v>
+        <v>303383.7882725182</v>
       </c>
       <c r="AE2" t="n">
-        <v>331283.4365444388</v>
+        <v>415103.0834625792</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397916467189716e-06</v>
+        <v>3.746697180205057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>299666.2103199596</v>
+        <v>375486.2277777466</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.2601473918513</v>
+        <v>337.8007014783129</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.5183449315219</v>
+        <v>462.1938224777971</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.9657169240376</v>
+        <v>418.0826927536195</v>
       </c>
       <c r="AD2" t="n">
-        <v>272260.1473918512</v>
+        <v>337800.701478313</v>
       </c>
       <c r="AE2" t="n">
-        <v>372518.3449315219</v>
+        <v>462193.8224777972</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.108250088989533e-06</v>
+        <v>3.435764852622969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.18287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>336965.7169240376</v>
+        <v>418082.6927536195</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.3688183805684</v>
+        <v>432.6611321483175</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.2819803598308</v>
+        <v>591.9860486673396</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.4403317079659</v>
+        <v>535.4877310401655</v>
       </c>
       <c r="AD2" t="n">
-        <v>366368.8183805684</v>
+        <v>432661.1321483175</v>
       </c>
       <c r="AE2" t="n">
-        <v>501281.9803598308</v>
+        <v>591986.0486673396</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.958644784027111e-06</v>
+        <v>2.893664207281592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.36574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>453440.3317079659</v>
+        <v>535487.7310401655</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.634749038044</v>
+        <v>319.5445263120002</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.9802061443509</v>
+        <v>437.2149182096423</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.8150776983082</v>
+        <v>395.487740050705</v>
       </c>
       <c r="AD3" t="n">
-        <v>261634.749038044</v>
+        <v>319544.5263120002</v>
       </c>
       <c r="AE3" t="n">
-        <v>357980.2061443509</v>
+        <v>437214.9182096423</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412314310348048e-06</v>
+        <v>3.563906857176561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>323815.0776983082</v>
+        <v>395487.740050705</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.1511722537957</v>
+        <v>320.0609495277519</v>
       </c>
       <c r="AB4" t="n">
-        <v>358.6867991711268</v>
+        <v>437.9215112364182</v>
       </c>
       <c r="AC4" t="n">
-        <v>324.454234478318</v>
+        <v>396.1268968307148</v>
       </c>
       <c r="AD4" t="n">
-        <v>262151.1722537957</v>
+        <v>320060.9495277519</v>
       </c>
       <c r="AE4" t="n">
-        <v>358686.7991711268</v>
+        <v>437921.5112364182</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413366779334629e-06</v>
+        <v>3.56546175465495e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>324454.234478318</v>
+        <v>396126.8968307148</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.9417709286018</v>
+        <v>569.1462584810968</v>
       </c>
       <c r="AB2" t="n">
-        <v>662.1504809886396</v>
+        <v>778.73101981466</v>
       </c>
       <c r="AC2" t="n">
-        <v>598.95576841712</v>
+        <v>704.410024239399</v>
       </c>
       <c r="AD2" t="n">
-        <v>483941.7709286019</v>
+        <v>569146.2584810967</v>
       </c>
       <c r="AE2" t="n">
-        <v>662150.4809886396</v>
+        <v>778731.0198146601</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.64010958087251e-06</v>
+        <v>2.381716315579021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.83680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>598955.76841712</v>
+        <v>704410.024239399</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.5585658218984</v>
+        <v>359.2614457068448</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.8692453487367</v>
+        <v>491.5573595124894</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.7518998277513</v>
+        <v>444.6438150257037</v>
       </c>
       <c r="AD3" t="n">
-        <v>299558.5658218983</v>
+        <v>359261.4457068448</v>
       </c>
       <c r="AE3" t="n">
-        <v>409869.2453487368</v>
+        <v>491557.3595124894</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.231010220729917e-06</v>
+        <v>3.239803916095188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.84837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>370751.8998277513</v>
+        <v>444643.8150257037</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.0615285399888</v>
+        <v>326.2355150927798</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.3513182066177</v>
+        <v>446.3698242450968</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.4328766093699</v>
+        <v>403.7689147031271</v>
       </c>
       <c r="AD4" t="n">
-        <v>275061.5285399889</v>
+        <v>326235.5150927798</v>
       </c>
       <c r="AE4" t="n">
-        <v>376351.3182066177</v>
+        <v>446369.8242450968</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.371395828934523e-06</v>
+        <v>3.443667546570123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.02662037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>340432.8766093699</v>
+        <v>403768.9147031271</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.8736955533349</v>
+        <v>327.0476821061259</v>
       </c>
       <c r="AB5" t="n">
-        <v>377.4625609445576</v>
+        <v>447.4810669830368</v>
       </c>
       <c r="AC5" t="n">
-        <v>341.4380639000399</v>
+        <v>404.774101993797</v>
       </c>
       <c r="AD5" t="n">
-        <v>275873.6955533349</v>
+        <v>327047.6821061259</v>
       </c>
       <c r="AE5" t="n">
-        <v>377462.5609445576</v>
+        <v>447481.0669830368</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.37112893614326e-06</v>
+        <v>3.443279973128155e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.02662037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>341438.0639000399</v>
+        <v>404774.101993797</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.415668038671</v>
+        <v>389.632953972661</v>
       </c>
       <c r="AB2" t="n">
-        <v>416.5149468819519</v>
+        <v>533.1129970181587</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.7633449339371</v>
+        <v>482.2334408115354</v>
       </c>
       <c r="AD2" t="n">
-        <v>304415.668038671</v>
+        <v>389632.9539726611</v>
       </c>
       <c r="AE2" t="n">
-        <v>416514.9468819519</v>
+        <v>533112.9970181587</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.807645182757681e-06</v>
+        <v>3.013236821889153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.95601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>376763.3449339371</v>
+        <v>482233.4408115355</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.3165759522272</v>
+        <v>308.8291114369208</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.5989147562756</v>
+        <v>422.5536148468182</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.5200007866722</v>
+        <v>382.2256909035603</v>
       </c>
       <c r="AD2" t="n">
-        <v>253316.5759522272</v>
+        <v>308829.1114369208</v>
       </c>
       <c r="AE2" t="n">
-        <v>346598.9147562756</v>
+        <v>422553.6148468181</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429175149685719e-06</v>
+        <v>3.696977745628844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.00462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>313520.0007866722</v>
+        <v>382225.6909035603</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.5479451190024</v>
+        <v>306.9175912163891</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.2330430886875</v>
+        <v>419.9381885507663</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.4297491519158</v>
+        <v>379.8598772224298</v>
       </c>
       <c r="AD3" t="n">
-        <v>243547.9451190024</v>
+        <v>306917.5912163891</v>
       </c>
       <c r="AE3" t="n">
-        <v>333233.0430886875</v>
+        <v>419938.1885507663</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.450515160317986e-06</v>
+        <v>3.729455249117705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88310185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>301429.7491519158</v>
+        <v>379859.8772224298</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.6223558052862</v>
+        <v>379.7815328289435</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.4801873715193</v>
+        <v>519.6338479952969</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.3957624715184</v>
+        <v>470.0407228533112</v>
       </c>
       <c r="AD2" t="n">
-        <v>314622.3558052862</v>
+        <v>379781.5328289435</v>
       </c>
       <c r="AE2" t="n">
-        <v>430480.1873715193</v>
+        <v>519633.847995297</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147240065882114e-06</v>
+        <v>3.205637656986522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>389395.7624715184</v>
+        <v>470040.7228533112</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.7225135499332</v>
+        <v>310.7154694205625</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.1543364861597</v>
+        <v>425.1346130602776</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.0224138461955</v>
+        <v>384.5603622699808</v>
       </c>
       <c r="AD3" t="n">
-        <v>253722.5135499332</v>
+        <v>310715.4694205625</v>
       </c>
       <c r="AE3" t="n">
-        <v>347154.3364861597</v>
+        <v>425134.6130602775</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4377120594005e-06</v>
+        <v>3.639286402423821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>314022.4138461956</v>
+        <v>384560.3622699808</v>
       </c>
     </row>
   </sheetData>
